--- a/xlsx/Rainbow_intext.xlsx
+++ b/xlsx/Rainbow_intext.xlsx
@@ -29,49 +29,49 @@
     <t>彩虹</t>
   </si>
   <si>
-    <t>政策_政策_財經_Rainbow</t>
+    <t>政策_政策_财经_Rainbow</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BF%83%E8%AB%BE</t>
   </si>
   <si>
-    <t>胡心諾</t>
+    <t>胡心诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Rainbow_(%E9%9F%B3%E6%A8%82%E5%9C%98%E9%AB%94)</t>
   </si>
   <si>
-    <t>Rainbow (音樂團體)</t>
+    <t>Rainbow (音乐团体)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Rainbow_(%E6%BF%B1%E5%B4%8E%E6%AD%A5%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>Rainbow (濱崎步專輯)</t>
+    <t>Rainbow (滨崎步专辑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Over_The_Rainbow_(%E5%BC%B5%E9%9F%B6%E6%B6%B5%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>Over The Rainbow (張韶涵專輯)</t>
+    <t>Over The Rainbow (张韶涵专辑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Over_The_Rainbow_(Rainbow%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>Over The Rainbow (Rainbow專輯)</t>
+    <t>Over The Rainbow (Rainbow专辑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Rainbow_(GFRIEND%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>Rainbow (GFRIEND專輯)</t>
+    <t>Rainbow (GFRIEND专辑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%99%B9_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>彩虹 (消歧義)</t>
+    <t>彩虹 (消歧义)</t>
   </si>
 </sst>
 </file>
